--- a/data_year/zb/社会服务/殡葬服务.xlsx
+++ b/data_year/zb/社会服务/殡葬服务.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,275 +468,150 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450.2</v>
+        <v>474.1</v>
       </c>
       <c r="C2" t="n">
-        <v>54.8</v>
+        <v>60.5</v>
       </c>
       <c r="D2" t="n">
-        <v>3284</v>
+        <v>3951</v>
       </c>
       <c r="E2" t="n">
-        <v>68588</v>
+        <v>75230</v>
       </c>
       <c r="F2" t="n">
-        <v>5037</v>
+        <v>5229</v>
       </c>
       <c r="G2" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>430.2</v>
+        <v>468.1</v>
       </c>
       <c r="C3" t="n">
-        <v>45.4</v>
+        <v>59.9</v>
       </c>
       <c r="D3" t="n">
-        <v>3549</v>
+        <v>4103</v>
       </c>
       <c r="E3" t="n">
-        <v>70500</v>
+        <v>75254</v>
       </c>
       <c r="F3" t="n">
-        <v>5649</v>
+        <v>5209</v>
       </c>
       <c r="G3" t="n">
-        <v>48.2</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>442.1</v>
+        <v>477.7</v>
       </c>
       <c r="C4" t="n">
-        <v>53.3</v>
+        <v>60.9</v>
       </c>
       <c r="D4" t="n">
-        <v>3669</v>
+        <v>4357</v>
       </c>
       <c r="E4" t="n">
-        <v>73227</v>
+        <v>77254</v>
       </c>
       <c r="F4" t="n">
-        <v>4838</v>
+        <v>5539</v>
       </c>
       <c r="G4" t="n">
-        <v>48.4</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>453.4</v>
+        <v>468.89</v>
       </c>
       <c r="C5" t="n">
-        <v>49.9</v>
+        <v>62.82</v>
       </c>
       <c r="D5" t="n">
-        <v>3754</v>
+        <v>4382</v>
       </c>
       <c r="E5" t="n">
-        <v>74731</v>
+        <v>80768</v>
       </c>
       <c r="F5" t="n">
-        <v>4789</v>
+        <v>5743</v>
       </c>
       <c r="G5" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>454.2</v>
+        <v>459.3037</v>
       </c>
       <c r="C6" t="n">
-        <v>52.9</v>
+        <v>60.4033</v>
       </c>
       <c r="D6" t="n">
-        <v>3896</v>
+        <v>4559</v>
       </c>
       <c r="E6" t="n">
-        <v>74050</v>
+        <v>82651</v>
       </c>
       <c r="F6" t="n">
-        <v>5123</v>
+        <v>5908</v>
       </c>
       <c r="G6" t="n">
-        <v>48.2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474.1</v>
+        <v>459.5065</v>
       </c>
       <c r="C7" t="n">
-        <v>60.5</v>
+        <v>65.48350000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>3951</v>
+        <v>4530</v>
       </c>
       <c r="E7" t="n">
-        <v>75230</v>
+        <v>85000</v>
       </c>
       <c r="F7" t="n">
-        <v>5229</v>
+        <v>6063</v>
       </c>
       <c r="G7" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>468.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4103</v>
-      </c>
-      <c r="E8" t="n">
-        <v>75254</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5209</v>
-      </c>
-      <c r="G8" t="n">
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>477.7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4357</v>
-      </c>
-      <c r="E9" t="n">
-        <v>77254</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5539</v>
-      </c>
-      <c r="G9" t="n">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>468.89</v>
-      </c>
-      <c r="C10" t="n">
-        <v>62.82</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4382</v>
-      </c>
-      <c r="E10" t="n">
-        <v>80768</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5743</v>
-      </c>
-      <c r="G10" t="n">
-        <v>48.2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>459.3037</v>
-      </c>
-      <c r="C11" t="n">
-        <v>60.4033</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4559</v>
-      </c>
-      <c r="E11" t="n">
-        <v>82651</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5908</v>
-      </c>
-      <c r="G11" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>459.5065</v>
-      </c>
-      <c r="C12" t="n">
-        <v>65.48350000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4530</v>
-      </c>
-      <c r="E12" t="n">
-        <v>85000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6063</v>
-      </c>
-      <c r="G12" t="n">
         <v>47.0553203931</v>
       </c>
     </row>
